--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heemokang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmkang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4DB1F-226F-41AD-914D-A460DD0A11D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8868" windowHeight="3420" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고급필터" sheetId="1" r:id="rId1"/>
@@ -106,12 +107,23 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="115">
   <si>
     <t>단가</t>
   </si>
@@ -522,19 +534,23 @@
   </si>
   <si>
     <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0&quot;원&quot;;_ * \-#,##0&quot;원&quot;;_ * &quot;-&quot;_ ;_ @&quot;원&quot;"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,9 +948,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1026,6 +1039,15 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="계산" xfId="5" builtinId="22"/>
@@ -1033,10 +1055,129 @@
     <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="1"/>
-    <cellStyle name="표준_소매력강화과정교안" xfId="3"/>
+    <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="표준_소매력강화과정교안" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1138,88 +1279,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1284,6 +1343,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1291,435 +1359,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="_ * #,##0&quot;원&quot;;_ * \-#,##0&quot;원&quot;;_ * &quot;-&quot;_ ;_ @&quot;원&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="_ * #,##0&quot;원&quot;;_ * \-#,##0&quot;원&quot;;_ * &quot;-&quot;_ ;_ @&quot;원&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1820,6 +1459,426 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="_ * #,##0&quot;원&quot;;_ * \-#,##0&quot;원&quot;;_ * &quot;-&quot;_ ;_ @&quot;원&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="_ * #,##0&quot;원&quot;;_ * \-#,##0&quot;원&quot;;_ * &quot;-&quot;_ ;_ @&quot;원&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1834,43 +1893,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표5" displayName="표5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <tableColumns count="4">
-    <tableColumn id="1" name="지역" dataDxfId="13"/>
-    <tableColumn id="2" name="종류" dataDxfId="12"/>
-    <tableColumn id="3" name="수확량" dataDxfId="11"/>
-    <tableColumn id="4" name="단가" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="지역" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="종류" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="수확량" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="단가" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="B5:H13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="표준_Sheet1" dataCellStyle="표준_Sheet1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표4" displayName="표4" ref="B5:H13" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" headerRowCellStyle="표준_Sheet1" dataCellStyle="표준_Sheet1">
   <tableColumns count="7">
-    <tableColumn id="1" name="부서명 " dataDxfId="25" dataCellStyle="표준_Sheet1"/>
-    <tableColumn id="2" name="성명" dataDxfId="24" dataCellStyle="표준_Sheet1"/>
-    <tableColumn id="3" name="급호" dataDxfId="23" dataCellStyle="표준_Sheet1"/>
-    <tableColumn id="4" name="성별" dataDxfId="22" dataCellStyle="표준_Sheet1"/>
-    <tableColumn id="5" name="직위 " dataDxfId="21" dataCellStyle="표준_Sheet1"/>
-    <tableColumn id="6" name="급여" dataDxfId="20" dataCellStyle="표준_Sheet1"/>
-    <tableColumn id="7" name="상여금" dataDxfId="19" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="부서명 " dataDxfId="29" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="성명" dataDxfId="28" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="급호" dataDxfId="27" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="성별" dataDxfId="26" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="직위 " dataDxfId="25" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="급여" dataDxfId="24" dataCellStyle="표준_Sheet1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="상여금" dataDxfId="23" dataCellStyle="표준_Sheet1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A3:G8" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A3:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="표3" displayName="표3" ref="A3:G8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:G8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="       과목_x000a_이름" dataDxfId="38"/>
-    <tableColumn id="2" name="국어" dataDxfId="37"/>
-    <tableColumn id="3" name="영어" dataDxfId="36"/>
-    <tableColumn id="4" name="수학" dataDxfId="35"/>
-    <tableColumn id="5" name="생물" dataDxfId="34"/>
-    <tableColumn id="6" name="화학" dataDxfId="33"/>
-    <tableColumn id="7" name="평균" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="       과목_x000a_이름" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="국어" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="영어" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="수학" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="생물" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="화학" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="평균" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(B4:F4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1879,41 +1938,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B3:E10" totalsRowShown="0">
-  <autoFilter ref="B3:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="표1" displayName="표1" ref="B3:E10" totalsRowShown="0">
+  <autoFilter ref="B3:E10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="제품명"/>
-    <tableColumn id="2" name="단가" dataDxfId="31" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="개수"/>
-    <tableColumn id="4" name="금액" dataDxfId="30" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="제품명"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="단가" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="개수"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="금액" dataDxfId="12" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B13:E22" totalsRowShown="0">
-  <autoFilter ref="B13:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="표2" displayName="표2" ref="B13:E22" totalsRowShown="0">
+  <autoFilter ref="B13:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="항목"/>
-    <tableColumn id="2" name="단가" dataDxfId="29" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="개수"/>
-    <tableColumn id="4" name="금액" dataDxfId="28" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="항목"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="단가" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="개수"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="금액" dataDxfId="10" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="B1:G65" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <tableColumns count="6">
-    <tableColumn id="1" name="팀장명" dataDxfId="5" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="2" name="영업사원" dataDxfId="4" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="3" name="브랜드" dataDxfId="3" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="4" name="수량" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="단가" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="판매액" dataDxfId="0" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표6" displayName="표6" ref="B1:H65" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="팀장명" dataDxfId="6" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="영업사원" dataDxfId="2" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="7" xr3:uid="{C956707B-BAEA-4DF5-A786-C0F0B6836663}" name="날짜" dataDxfId="0" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="브랜드" dataDxfId="1" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="수량" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="단가" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="판매액" dataDxfId="3" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1996,6 +2056,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2031,6 +2108,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2206,32 +2300,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2240,12 +2334,12 @@
       <c r="C2" s="1">
         <v>23</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2254,12 +2348,12 @@
       <c r="C3" s="1">
         <v>73</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2268,12 +2362,12 @@
       <c r="C4" s="1">
         <v>56</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2282,12 +2376,12 @@
       <c r="C5" s="1">
         <v>95</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2296,12 +2390,12 @@
       <c r="C6" s="1">
         <v>24</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2310,12 +2404,12 @@
       <c r="C7" s="1">
         <v>20</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2324,25 +2418,25 @@
       <c r="C8" s="1">
         <v>85</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>75</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2445,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
     <sortCondition ref="A2:A9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2364,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B5:H14"/>
   <sheetViews>
@@ -2372,37 +2466,37 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:8" ht="17.25" thickTop="1">
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2420,12 +2514,12 @@
       <c r="G6" s="5">
         <v>1600000</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>560000</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2443,12 +2537,12 @@
       <c r="G7" s="7">
         <v>1670000</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>584500</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2466,12 +2560,12 @@
       <c r="G8" s="7">
         <v>870000</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>304500</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2489,12 +2583,12 @@
       <c r="G9" s="7">
         <v>1500000</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>525000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2512,12 +2606,12 @@
       <c r="G10" s="7">
         <v>1200000</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>420000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2535,12 +2629,12 @@
       <c r="G11" s="7">
         <v>1100000</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>385000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2558,12 +2652,12 @@
       <c r="G12" s="7">
         <v>1000000</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>350000</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2581,52 +2675,52 @@
       <c r="G13" s="7">
         <v>840000</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>294000</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="27" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>3215</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>850000</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <v>297500</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B6:H14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:H14">
     <sortCondition ref="B8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="textLength" imeMode="fullAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J14 J6:J8">
+    <dataValidation type="textLength" imeMode="fullAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J14 J6:J8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="textLength" imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
+    <dataValidation type="textLength" imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="textLength" imeMode="fullHangul" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10">
+    <dataValidation type="textLength" imeMode="fullHangul" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="textLength" imeMode="halfHangul" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11">
+    <dataValidation type="textLength" imeMode="halfHangul" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
@@ -2639,7 +2733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:H10"/>
   <sheetViews>
@@ -2647,9 +2741,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="33">
       <c r="A3" s="18" t="s">
         <v>111</v>
       </c>
@@ -2673,7 +2767,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2698,7 +2792,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2723,7 +2817,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2748,7 +2842,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +2867,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2798,7 +2892,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2808,7 +2902,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="17.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2833,36 +2927,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="18.75" thickTop="1" thickBot="1">
+      <c r="B2" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="G2" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="19.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="18" thickTop="1">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -2880,7 +2974,7 @@
         <v>6120000</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>85</v>
       </c>
@@ -2895,7 +2989,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -2910,7 +3004,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -2925,7 +3019,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -2940,7 +3034,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>89</v>
       </c>
@@ -2955,7 +3049,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>107</v>
       </c>
@@ -2970,7 +3064,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -2980,16 +3074,16 @@
         <v>47820000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="2:7" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="20" t="s">
+    <row r="11" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="12" spans="2:7" ht="18.75" thickTop="1" thickBot="1">
+      <c r="B12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="2:7" ht="17.25" thickTop="1">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -3003,7 +3097,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>94</v>
       </c>
@@ -3018,7 +3112,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -3033,7 +3127,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>96</v>
       </c>
@@ -3048,7 +3142,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>97</v>
       </c>
@@ -3064,7 +3158,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>98</v>
       </c>
@@ -3080,7 +3174,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>99</v>
       </c>
@@ -3096,7 +3190,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -3112,7 +3206,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>101</v>
       </c>
@@ -3128,7 +3222,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>108</v>
       </c>
@@ -3152,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:E3"/>
   <sheetViews>
@@ -3160,9 +3254,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
@@ -3176,7 +3270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5">
       <c r="B3" s="1">
         <f>C3*(1+D3)^E3</f>
         <v>1000000</v>
@@ -3196,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:E4"/>
   <sheetViews>
@@ -3204,9 +3298,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3220,7 +3314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -3237,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -3261,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3269,9 +3363,9 @@
       <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -3291,7 +3385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -3313,7 +3407,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -3335,7 +3429,7 @@
         <v>29399.999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -3357,7 +3451,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -3400,1575 +3494,1771 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="9.796875" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="51">
+        <v>44202</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>30</v>
       </c>
-      <c r="F2" s="12">
+      <c r="G2" s="12">
         <v>6600</v>
       </c>
-      <c r="G2" s="40">
-        <f t="shared" ref="G2:G65" si="0">E2*F2</f>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2:H65" si="0">F2*G2</f>
         <v>198000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="51">
+        <v>44203</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>12</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>17500</v>
       </c>
-      <c r="G3" s="40">
+      <c r="H3" s="39">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="51">
+        <v>44206</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="12">
         <v>12</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>17500</v>
       </c>
-      <c r="G4" s="40">
+      <c r="H4" s="39">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="51">
+        <v>44211</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>136</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>6600</v>
       </c>
-      <c r="G5" s="40">
+      <c r="H5" s="39">
         <f t="shared" si="0"/>
         <v>897600</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="51">
+        <v>44212</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>15</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>17500</v>
       </c>
-      <c r="G6" s="40">
+      <c r="H6" s="39">
         <f t="shared" si="0"/>
         <v>262500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="51">
+        <v>44208</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>17</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>17500</v>
       </c>
-      <c r="G7" s="40">
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>297500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="51">
+        <v>44199</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="12">
         <v>17500</v>
       </c>
-      <c r="G8" s="40">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>367500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="51">
+        <v>44201</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>63</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>6600</v>
       </c>
-      <c r="G9" s="40">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>415800</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="51">
+        <v>44209</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <v>63</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <v>6600</v>
       </c>
-      <c r="G10" s="40">
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>415800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="51">
+        <v>44203</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>59</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="13">
         <v>7400</v>
       </c>
-      <c r="G11" s="40">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>436600</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="51">
+        <v>44216</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="12">
+      <c r="F12" s="12">
         <v>63</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>7400</v>
       </c>
-      <c r="G12" s="40">
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
         <v>466200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="51">
+        <v>44221</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="12">
+      <c r="F13" s="12">
         <v>52</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="13">
         <v>9100</v>
       </c>
-      <c r="G13" s="40">
+      <c r="H13" s="39">
         <f t="shared" si="0"/>
         <v>473200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="51">
+        <v>44211</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>72</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="12">
         <v>6600</v>
       </c>
-      <c r="G14" s="40">
+      <c r="H14" s="39">
         <f t="shared" si="0"/>
         <v>475200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="51">
+        <v>44223</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>75</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <v>6600</v>
       </c>
-      <c r="G15" s="40">
+      <c r="H15" s="39">
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="51">
+        <v>44225</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F16" s="11">
         <v>76</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="12">
         <v>6600</v>
       </c>
-      <c r="G16" s="40">
+      <c r="H16" s="39">
         <f t="shared" si="0"/>
         <v>501600</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="51">
+        <v>44226</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>29</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <v>17500</v>
       </c>
-      <c r="G17" s="40">
+      <c r="H17" s="39">
         <f t="shared" si="0"/>
         <v>507500</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="51">
+        <v>44229</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>31</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <v>17500</v>
       </c>
-      <c r="G18" s="40">
+      <c r="H18" s="39">
         <f t="shared" si="0"/>
         <v>542500</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="51">
+        <v>44230</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>87</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="12">
         <v>6600</v>
       </c>
-      <c r="G19" s="40">
+      <c r="H19" s="39">
         <f t="shared" si="0"/>
         <v>574200</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="51">
+        <v>44231</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>94</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <v>6600</v>
       </c>
-      <c r="G20" s="40">
+      <c r="H20" s="39">
         <f t="shared" si="0"/>
         <v>620400</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="51">
+        <v>44233</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="11">
+      <c r="F21" s="11">
         <v>95</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <v>6600</v>
       </c>
-      <c r="G21" s="40">
+      <c r="H21" s="39">
         <f t="shared" si="0"/>
         <v>627000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="51">
+        <v>44234</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F22" s="11">
         <v>37</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <v>17500</v>
       </c>
-      <c r="G22" s="40">
+      <c r="H22" s="39">
         <f t="shared" si="0"/>
         <v>647500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="51">
+        <v>44231</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>99</v>
       </c>
-      <c r="F23" s="12">
+      <c r="G23" s="12">
         <v>6600</v>
       </c>
-      <c r="G23" s="40">
+      <c r="H23" s="39">
         <f t="shared" si="0"/>
         <v>653400</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="51">
+        <v>44236</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>99</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="12">
         <v>6600</v>
       </c>
-      <c r="G24" s="40">
+      <c r="H24" s="39">
         <f t="shared" si="0"/>
         <v>653400</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="51">
+        <v>44240</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="12">
+      <c r="F25" s="12">
         <v>38</v>
       </c>
-      <c r="F25" s="12">
+      <c r="G25" s="12">
         <v>17500</v>
       </c>
-      <c r="G25" s="40">
+      <c r="H25" s="39">
         <f t="shared" si="0"/>
         <v>665000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="51">
+        <v>44245</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>108</v>
       </c>
-      <c r="F26" s="12">
+      <c r="G26" s="12">
         <v>6600</v>
       </c>
-      <c r="G26" s="40">
+      <c r="H26" s="39">
         <f t="shared" si="0"/>
         <v>712800</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="51">
+        <v>44231</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>108</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="12">
         <v>6600</v>
       </c>
-      <c r="G27" s="40">
+      <c r="H27" s="39">
         <f t="shared" si="0"/>
         <v>712800</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="51">
+        <v>44249</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="11">
+      <c r="F28" s="11">
         <v>109</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <v>6600</v>
       </c>
-      <c r="G28" s="40">
+      <c r="H28" s="39">
         <f t="shared" si="0"/>
         <v>719400</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="51">
+        <v>44255</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="13">
+      <c r="F29" s="13">
         <v>101</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G29" s="13">
         <v>7400</v>
       </c>
-      <c r="G29" s="40">
+      <c r="H29" s="39">
         <f t="shared" si="0"/>
         <v>747400</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="51">
+        <v>44252</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="11">
+      <c r="F30" s="11">
         <v>43</v>
       </c>
-      <c r="F30" s="12">
+      <c r="G30" s="12">
         <v>17500</v>
       </c>
-      <c r="G30" s="40">
+      <c r="H30" s="39">
         <f t="shared" si="0"/>
         <v>752500</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="51">
+        <v>44243</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="12">
+      <c r="F31" s="12">
         <v>104</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="13">
         <v>7400</v>
       </c>
-      <c r="G31" s="40">
+      <c r="H31" s="39">
         <f t="shared" si="0"/>
         <v>769600</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="A32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="51">
+        <v>44242</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="11">
+      <c r="F32" s="11">
         <v>106</v>
       </c>
-      <c r="F32" s="13">
+      <c r="G32" s="13">
         <v>7400</v>
       </c>
-      <c r="G32" s="40">
+      <c r="H32" s="39">
         <f t="shared" si="0"/>
         <v>784400</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="51">
+        <v>44233</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="11">
+      <c r="F33" s="11">
         <v>106</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="13">
         <v>7400</v>
       </c>
-      <c r="G33" s="40">
+      <c r="H33" s="39">
         <f t="shared" si="0"/>
         <v>784400</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="51">
+        <v>44260</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="12">
+      <c r="F34" s="12">
         <v>48</v>
       </c>
-      <c r="F34" s="12">
+      <c r="G34" s="12">
         <v>17500</v>
       </c>
-      <c r="G34" s="40">
+      <c r="H34" s="39">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="51">
+        <v>44258</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="11">
+      <c r="F35" s="11">
         <v>117</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G35" s="13">
         <v>7400</v>
       </c>
-      <c r="G35" s="40">
+      <c r="H35" s="39">
         <f t="shared" si="0"/>
         <v>865800</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="51">
+        <v>44263</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="11">
+      <c r="F36" s="11">
         <v>50</v>
       </c>
-      <c r="F36" s="12">
+      <c r="G36" s="12">
         <v>17500</v>
       </c>
-      <c r="G36" s="40">
+      <c r="H36" s="39">
         <f t="shared" si="0"/>
         <v>875000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="51">
+        <v>44264</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="11">
+      <c r="F37" s="11">
         <v>50</v>
       </c>
-      <c r="F37" s="12">
+      <c r="G37" s="12">
         <v>17500</v>
       </c>
-      <c r="G37" s="40">
+      <c r="H37" s="39">
         <f t="shared" si="0"/>
         <v>875000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="51">
+        <v>44265</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="13">
+      <c r="F38" s="13">
         <v>50</v>
       </c>
-      <c r="F38" s="12">
+      <c r="G38" s="12">
         <v>17500</v>
       </c>
-      <c r="G38" s="40">
+      <c r="H38" s="39">
         <f t="shared" si="0"/>
         <v>875000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="51">
+        <v>44270</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="11">
+      <c r="F39" s="11">
         <v>140</v>
       </c>
-      <c r="F39" s="12">
+      <c r="G39" s="12">
         <v>6600</v>
       </c>
-      <c r="G39" s="40">
+      <c r="H39" s="39">
         <f t="shared" si="0"/>
         <v>924000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="51">
+        <v>44265</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="11">
+      <c r="F40" s="11">
         <v>54</v>
       </c>
-      <c r="F40" s="12">
+      <c r="G40" s="12">
         <v>17500</v>
       </c>
-      <c r="G40" s="40">
+      <c r="H40" s="39">
         <f t="shared" si="0"/>
         <v>945000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="51">
+        <v>44275</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="12">
+      <c r="F41" s="12">
         <v>131</v>
       </c>
-      <c r="F41" s="13">
+      <c r="G41" s="13">
         <v>7400</v>
       </c>
-      <c r="G41" s="40">
+      <c r="H41" s="39">
         <f t="shared" si="0"/>
         <v>969400</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="51">
+        <v>44277</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="12">
+      <c r="F42" s="12">
         <v>59</v>
       </c>
-      <c r="F42" s="12">
+      <c r="G42" s="12">
         <v>17500</v>
       </c>
-      <c r="G42" s="40">
+      <c r="H42" s="39">
         <f t="shared" si="0"/>
         <v>1032500</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8">
       <c r="A43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="51">
+        <v>44260</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="11">
+      <c r="F43" s="11">
         <v>130</v>
       </c>
-      <c r="F43" s="13">
+      <c r="G43" s="13">
         <v>9100</v>
       </c>
-      <c r="G43" s="40">
+      <c r="H43" s="39">
         <f t="shared" si="0"/>
         <v>1183000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="51">
+        <v>44272</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="11">
+      <c r="F44" s="11">
         <v>160</v>
       </c>
-      <c r="F44" s="13">
+      <c r="G44" s="13">
         <v>7400</v>
       </c>
-      <c r="G44" s="40">
+      <c r="H44" s="39">
         <f t="shared" si="0"/>
         <v>1184000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8">
       <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="51">
+        <v>44274</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="11">
+      <c r="F45" s="11">
         <v>168</v>
       </c>
-      <c r="F45" s="13">
+      <c r="G45" s="13">
         <v>7400</v>
       </c>
-      <c r="G45" s="40">
+      <c r="H45" s="39">
         <f t="shared" si="0"/>
         <v>1243200</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8">
       <c r="A46" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="51">
+        <v>44282</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="11">
+      <c r="F46" s="11">
         <v>147</v>
       </c>
-      <c r="F46" s="13">
+      <c r="G46" s="13">
         <v>9100</v>
       </c>
-      <c r="G46" s="40">
+      <c r="H46" s="39">
         <f t="shared" si="0"/>
         <v>1337700</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8">
       <c r="A47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="51">
+        <v>44268</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="12">
+      <c r="F47" s="12">
         <v>203</v>
       </c>
-      <c r="F47" s="13">
+      <c r="G47" s="13">
         <v>7400</v>
       </c>
-      <c r="G47" s="40">
+      <c r="H47" s="39">
         <f t="shared" si="0"/>
         <v>1502200</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8">
       <c r="A48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="51">
+        <v>44266</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="13">
+      <c r="F48" s="13">
         <v>206</v>
       </c>
-      <c r="F48" s="13">
+      <c r="G48" s="13">
         <v>7400</v>
       </c>
-      <c r="G48" s="40">
+      <c r="H48" s="39">
         <f t="shared" si="0"/>
         <v>1524400</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="51">
+        <v>44265</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="11">
+      <c r="F49" s="11">
         <v>170</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G49" s="13">
         <v>9100</v>
       </c>
-      <c r="G49" s="40">
+      <c r="H49" s="39">
         <f t="shared" si="0"/>
         <v>1547000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="51">
+        <v>44287</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="12">
+      <c r="F50" s="12">
         <v>218</v>
       </c>
-      <c r="F50" s="13">
+      <c r="G50" s="13">
         <v>7400</v>
       </c>
-      <c r="G50" s="40">
+      <c r="H50" s="39">
         <f t="shared" si="0"/>
         <v>1613200</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="51">
+        <v>44291</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="11">
+      <c r="F51" s="11">
         <v>188</v>
       </c>
-      <c r="F51" s="13">
+      <c r="G51" s="13">
         <v>9100</v>
       </c>
-      <c r="G51" s="40">
+      <c r="H51" s="39">
         <f t="shared" si="0"/>
         <v>1710800</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8">
       <c r="A52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="51">
+        <v>44304</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="12">
+      <c r="F52" s="12">
         <v>245</v>
       </c>
-      <c r="F52" s="13">
+      <c r="G52" s="13">
         <v>7400</v>
       </c>
-      <c r="G52" s="40">
+      <c r="H52" s="39">
         <f t="shared" si="0"/>
         <v>1813000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="51">
+        <v>44294</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="12">
+      <c r="F53" s="12">
         <v>200</v>
       </c>
-      <c r="F53" s="13">
+      <c r="G53" s="13">
         <v>9100</v>
       </c>
-      <c r="G53" s="40">
+      <c r="H53" s="39">
         <f t="shared" si="0"/>
         <v>1820000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="51">
+        <v>44306</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="11">
+      <c r="F54" s="11">
         <v>248</v>
       </c>
-      <c r="F54" s="13">
+      <c r="G54" s="13">
         <v>7400</v>
       </c>
-      <c r="G54" s="40">
+      <c r="H54" s="39">
         <f t="shared" si="0"/>
         <v>1835200</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8">
       <c r="A55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="51">
+        <v>44308</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="11">
+      <c r="F55" s="11">
         <v>256</v>
       </c>
-      <c r="F55" s="13">
+      <c r="G55" s="13">
         <v>7400</v>
       </c>
-      <c r="G55" s="40">
+      <c r="H55" s="39">
         <f t="shared" si="0"/>
         <v>1894400</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8">
       <c r="A56" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="51">
+        <v>44301</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="11">
+      <c r="F56" s="11">
         <v>230</v>
       </c>
-      <c r="F56" s="13">
+      <c r="G56" s="13">
         <v>9100</v>
       </c>
-      <c r="G56" s="40">
+      <c r="H56" s="39">
         <f t="shared" si="0"/>
         <v>2093000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8">
       <c r="A57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="51">
+        <v>44289</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="12">
+      <c r="F57" s="12">
         <v>252</v>
       </c>
-      <c r="F57" s="13">
+      <c r="G57" s="13">
         <v>9100</v>
       </c>
-      <c r="G57" s="40">
+      <c r="H57" s="39">
         <f t="shared" si="0"/>
         <v>2293200</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="51">
+        <v>44288</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="11">
+      <c r="F58" s="11">
         <v>261</v>
       </c>
-      <c r="F58" s="13">
+      <c r="G58" s="13">
         <v>9100</v>
       </c>
-      <c r="G58" s="40">
+      <c r="H58" s="39">
         <f t="shared" si="0"/>
         <v>2375100</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="51">
+        <v>44305</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="12">
+      <c r="F59" s="12">
         <v>320</v>
       </c>
-      <c r="F59" s="13">
+      <c r="G59" s="13">
         <v>9100</v>
       </c>
-      <c r="G59" s="40">
+      <c r="H59" s="39">
         <f t="shared" si="0"/>
         <v>2912000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="51">
+        <v>44308</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="11">
+      <c r="F60" s="11">
         <v>343</v>
       </c>
-      <c r="F60" s="13">
+      <c r="G60" s="13">
         <v>9100</v>
       </c>
-      <c r="G60" s="40">
+      <c r="H60" s="39">
         <f t="shared" si="0"/>
         <v>3121300</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="51">
+        <v>44309</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="13">
+      <c r="F61" s="13">
         <v>419</v>
       </c>
-      <c r="F61" s="13">
+      <c r="G61" s="13">
         <v>9100</v>
       </c>
-      <c r="G61" s="40">
+      <c r="H61" s="39">
         <f t="shared" si="0"/>
         <v>3812900</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="51">
+        <v>44313</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="13">
+      <c r="F62" s="13">
         <v>420</v>
       </c>
-      <c r="F62" s="13">
+      <c r="G62" s="13">
         <v>9100</v>
       </c>
-      <c r="G62" s="40">
+      <c r="H62" s="39">
         <f t="shared" si="0"/>
         <v>3822000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="51">
+        <v>44297</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="12">
+      <c r="F63" s="12">
         <v>506</v>
       </c>
-      <c r="F63" s="13">
+      <c r="G63" s="13">
         <v>9100</v>
       </c>
-      <c r="G63" s="40">
+      <c r="H63" s="39">
         <f t="shared" si="0"/>
         <v>4604600</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="51">
+        <v>44301</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="12">
+      <c r="F64" s="12">
         <v>507</v>
       </c>
-      <c r="F64" s="13">
+      <c r="G64" s="13">
         <v>9100</v>
       </c>
-      <c r="G64" s="40">
+      <c r="H64" s="39">
         <f t="shared" si="0"/>
         <v>4613700</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8">
       <c r="A65" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="52">
+        <v>44302</v>
+      </c>
+      <c r="E65" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="48">
+      <c r="F65" s="47">
         <v>518</v>
       </c>
-      <c r="F65" s="49">
+      <c r="G65" s="48">
         <v>9100</v>
       </c>
-      <c r="G65" s="50">
+      <c r="H65" s="49">
         <f t="shared" si="0"/>
         <v>4713800</v>
       </c>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmkang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4DB1F-226F-41AD-914D-A460DD0A11D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB185385-E5B2-4887-BE11-80BB516310DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고급필터" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +497,6 @@
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,6 +530,14 @@
   </si>
   <si>
     <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입 및 지출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,13 +1039,13 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,125 +1059,6 @@
     <cellStyle name="표준_소매력강화과정교안" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1294,6 +1175,125 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1967,12 +1967,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표6" displayName="표6" ref="B1:H65" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="팀장명" dataDxfId="6" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="영업사원" dataDxfId="2" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="7" xr3:uid="{C956707B-BAEA-4DF5-A786-C0F0B6836663}" name="날짜" dataDxfId="0" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="브랜드" dataDxfId="1" dataCellStyle="표준_소매력강화과정교안"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="수량" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="단가" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="판매액" dataDxfId="3" dataCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="영업사원" dataDxfId="5" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="7" xr3:uid="{C956707B-BAEA-4DF5-A786-C0F0B6836663}" name="날짜" dataDxfId="4" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="브랜드" dataDxfId="3" dataCellStyle="표준_소매력강화과정교안"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="수량" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="단가" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="판매액" dataDxfId="0" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2312,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>6</v>
@@ -2745,7 +2745,7 @@
   <sheetData>
     <row r="3" spans="1:8" ht="33">
       <c r="A3" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
@@ -2931,8 +2931,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2946,28 +2946,28 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="18.75" thickTop="1" thickBot="1">
-      <c r="B2" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="G2" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" thickTop="1">
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
       </c>
       <c r="G3" s="17">
         <f>E10-E22</f>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="14">
         <v>100000</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="14"/>
       <c r="E10" s="14">
@@ -3076,30 +3076,30 @@
     </row>
     <row r="11" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="12" spans="2:7" ht="18.75" thickTop="1" thickBot="1">
-      <c r="B12" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" thickTop="1">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="14">
         <v>500000</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="14">
         <v>200000</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="14">
         <v>1900000</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="14">
         <v>400000</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="14">
         <v>250000</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="14">
         <v>700000</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="14">
         <v>20000</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="14">
         <v>10000</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="15">
         <f>SUM(E14:E21)</f>
@@ -3295,7 +3295,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3360,7 +3360,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3474,20 +3474,6 @@
       </c>
     </row>
   </sheetData>
-  <scenarios current="0" show="1" sqref="F2:F5">
-    <scenario name="할인율 20%" locked="1" count="4" user="hmkangs" comment="만든 사람 hmkangs 날짜 2009-10-07">
-      <inputCells r="B2" val="0.2"/>
-      <inputCells r="B3" val="0.2"/>
-      <inputCells r="B4" val="0.2"/>
-      <inputCells r="B5" val="0.2"/>
-    </scenario>
-    <scenario name="할인율 10%" locked="1" count="4" user="hmkangs" comment="만든 사람 hmkangs 날짜 2009-10-07">
-      <inputCells r="B2" val="0.1"/>
-      <inputCells r="B3" val="0.1"/>
-      <inputCells r="B4" val="0.1"/>
-      <inputCells r="B5" val="0.1"/>
-    </scenario>
-  </scenarios>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3498,8 +3484,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3507,6 +3493,11 @@
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3520,7 +3511,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>57</v>
@@ -3545,7 +3536,7 @@
       <c r="C2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="50">
         <v>44202</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3572,7 +3563,7 @@
       <c r="C3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="50">
         <v>44203</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -3599,7 +3590,7 @@
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <v>44206</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -3626,7 +3617,7 @@
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="50">
         <v>44211</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -3653,7 +3644,7 @@
       <c r="C6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="50">
         <v>44212</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -3680,7 +3671,7 @@
       <c r="C7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="50">
         <v>44208</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3707,8 +3698,8 @@
       <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="51">
-        <v>44199</v>
+      <c r="D8" s="50">
+        <v>44289</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>65</v>
@@ -3734,7 +3725,7 @@
       <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="50">
         <v>44201</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3761,7 +3752,7 @@
       <c r="C10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <v>44209</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -3788,7 +3779,7 @@
       <c r="C11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <v>44203</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3815,7 +3806,7 @@
       <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>44216</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -3842,7 +3833,7 @@
       <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>44221</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -3869,7 +3860,7 @@
       <c r="C14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="50">
         <v>44211</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -3896,7 +3887,7 @@
       <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="50">
         <v>44223</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -3923,7 +3914,7 @@
       <c r="C16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>44225</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -3950,7 +3941,7 @@
       <c r="C17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <v>44226</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -3977,7 +3968,7 @@
       <c r="C18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <v>44229</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -4004,7 +3995,7 @@
       <c r="C19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <v>44230</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -4031,7 +4022,7 @@
       <c r="C20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="50">
         <v>44231</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -4058,7 +4049,7 @@
       <c r="C21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>44233</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -4085,7 +4076,7 @@
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="50">
         <v>44234</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -4112,7 +4103,7 @@
       <c r="C23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="50">
         <v>44231</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -4139,7 +4130,7 @@
       <c r="C24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="50">
         <v>44236</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -4166,8 +4157,8 @@
       <c r="C25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="51">
-        <v>44240</v>
+      <c r="D25" s="50">
+        <v>44299</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>65</v>
@@ -4193,7 +4184,7 @@
       <c r="C26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="50">
         <v>44245</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -4220,8 +4211,8 @@
       <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="51">
-        <v>44231</v>
+      <c r="D27" s="50">
+        <v>44290</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>63</v>
@@ -4247,7 +4238,7 @@
       <c r="C28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="50">
         <v>44249</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -4274,7 +4265,7 @@
       <c r="C29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="50">
         <v>44255</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -4301,7 +4292,7 @@
       <c r="C30" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="50">
         <v>44252</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -4328,7 +4319,7 @@
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="50">
         <v>44243</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -4355,7 +4346,7 @@
       <c r="C32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="50">
         <v>44242</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -4382,7 +4373,7 @@
       <c r="C33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="50">
         <v>44233</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -4409,7 +4400,7 @@
       <c r="C34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="50">
         <v>44260</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -4436,7 +4427,7 @@
       <c r="C35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="50">
         <v>44258</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -4463,7 +4454,7 @@
       <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="50">
         <v>44263</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -4490,7 +4481,7 @@
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="50">
         <v>44264</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -4517,7 +4508,7 @@
       <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="50">
         <v>44265</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -4544,7 +4535,7 @@
       <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="50">
         <v>44270</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -4571,7 +4562,7 @@
       <c r="C40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="50">
         <v>44265</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -4598,7 +4589,7 @@
       <c r="C41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="50">
         <v>44275</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -4625,7 +4616,7 @@
       <c r="C42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="50">
         <v>44277</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -4652,7 +4643,7 @@
       <c r="C43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="50">
         <v>44260</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -4679,7 +4670,7 @@
       <c r="C44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="50">
         <v>44272</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -4706,7 +4697,7 @@
       <c r="C45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="50">
         <v>44274</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -4733,7 +4724,7 @@
       <c r="C46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="50">
         <v>44282</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -4760,7 +4751,7 @@
       <c r="C47" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="50">
         <v>44268</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -4787,7 +4778,7 @@
       <c r="C48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="50">
         <v>44266</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -4814,7 +4805,7 @@
       <c r="C49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="50">
         <v>44265</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -4841,7 +4832,7 @@
       <c r="C50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="50">
         <v>44287</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -4868,7 +4859,7 @@
       <c r="C51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="50">
         <v>44291</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -4895,7 +4886,7 @@
       <c r="C52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="50">
         <v>44304</v>
       </c>
       <c r="E52" s="10" t="s">
@@ -4922,7 +4913,7 @@
       <c r="C53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="50">
         <v>44294</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -4949,7 +4940,7 @@
       <c r="C54" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="50">
         <v>44306</v>
       </c>
       <c r="E54" s="10" t="s">
@@ -4976,7 +4967,7 @@
       <c r="C55" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="50">
         <v>44308</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -5003,7 +4994,7 @@
       <c r="C56" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="50">
         <v>44301</v>
       </c>
       <c r="E56" s="10" t="s">
@@ -5030,8 +5021,8 @@
       <c r="C57" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="51">
-        <v>44289</v>
+      <c r="D57" s="50">
+        <v>44230</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>72</v>
@@ -5057,7 +5048,7 @@
       <c r="C58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="50">
         <v>44288</v>
       </c>
       <c r="E58" s="10" t="s">
@@ -5084,7 +5075,7 @@
       <c r="C59" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="50">
         <v>44305</v>
       </c>
       <c r="E59" s="10" t="s">
@@ -5111,7 +5102,7 @@
       <c r="C60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="50">
         <v>44308</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -5138,7 +5129,7 @@
       <c r="C61" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="51">
+      <c r="D61" s="50">
         <v>44309</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -5165,7 +5156,7 @@
       <c r="C62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="50">
         <v>44313</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -5192,7 +5183,7 @@
       <c r="C63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="50">
         <v>44297</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -5219,7 +5210,7 @@
       <c r="C64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="50">
         <v>44301</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -5246,7 +5237,7 @@
       <c r="C65" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="51">
         <v>44302</v>
       </c>
       <c r="E65" s="46" t="s">

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bd4f7f7812a88fc/excel/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mystat\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2236" documentId="13_ncr:1_{685A19D9-D895-411E-A946-E3922E773018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B0578CE-F0A1-445D-B0FC-243B472E2D14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F416C49D-D8DB-458B-821A-86233D34069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24810" yWindow="840" windowWidth="16410" windowHeight="12705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고급필터" sheetId="1" r:id="rId1"/>
@@ -666,9 +666,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="#,###"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="#,###"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1117,7 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1154,13 +1154,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,8 +1175,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5935,9 +5935,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="수학" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="생물" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="화학" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="평균" dataDxfId="16">
-      <calculatedColumnFormula>AVERAGE(B4:F4)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="평균" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15891,7 +15889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0EBE1C-8021-46DF-BDCC-A92B71B9844E}">
   <dimension ref="B5:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -15902,48 +15900,48 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickTop="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="54">
         <v>2106</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="55">
         <v>3600000</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="55">
         <v>3560000</v>
       </c>
     </row>
@@ -15963,33 +15961,33 @@
       <c r="F7" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>3670000</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <v>3584500</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>3213</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="58">
         <v>2870000</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="58">
         <v>3304500</v>
       </c>
     </row>
@@ -16009,33 +16007,33 @@
       <c r="F9" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>3500000</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>3525000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>3112</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="58">
         <v>3200000</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="58">
         <v>3420000</v>
       </c>
     </row>
@@ -16055,33 +16053,33 @@
       <c r="F11" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="52">
         <v>3100000</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <v>3385000</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>3114</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="58">
         <v>3000000</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="58">
         <v>3350000</v>
       </c>
     </row>
@@ -16101,33 +16099,33 @@
       <c r="F13" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="52">
         <v>2840000</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="52">
         <v>2294000</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>3215</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="58">
         <v>2850000</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="58">
         <v>2297500</v>
       </c>
     </row>
@@ -16143,8 +16141,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16178,23 +16176,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
-        <f>AVERAGE(B4:F4)</f>
-        <v>84.4</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -16203,23 +16200,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
-        <f>AVERAGE(B5:F5)</f>
-        <v>85</v>
+        <v>79.8</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16228,23 +16224,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2">
-        <f>AVERAGE(B6:F6)</f>
-        <v>81.8</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16253,23 +16248,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
         <v>72</v>
       </c>
-      <c r="E7" s="2">
-        <v>79</v>
-      </c>
       <c r="F7" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
-        <f>AVERAGE(B7:F7)</f>
-        <v>81.8</v>
+        <v>75.2</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -16278,23 +16272,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>95</v>
       </c>
       <c r="F8" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2">
-        <f>AVERAGE(B8:F8)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -16319,7 +16312,7 @@
       </c>
       <c r="G10" s="14">
         <f>AVERAGE(G4:G8)</f>
-        <v>85</v>
+        <v>79.52</v>
       </c>
     </row>
   </sheetData>
@@ -16408,12 +16401,12 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="18.75" thickTop="1" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="G2" s="12" t="s">
         <v>86</v>
       </c>
@@ -16538,12 +16531,12 @@
     </row>
     <row r="11" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="12" spans="2:7" ht="18.75" thickTop="1" thickBot="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" thickTop="1">
       <c r="B13" t="s">
